--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/11/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/11/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2682682682682683</v>
+        <v>0.4130413041304131</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1567.567567567568</v>
+        <v>1412.651265126513</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07527527527527528</v>
+        <v>0.00137013701370137</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6786786786786787</v>
+        <v>0.1899189918991899</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.1161161161161</v>
+        <v>526.4026402640264</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.4954954954956</v>
+        <v>624.4824482448245</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>762.7627627627628</v>
+        <v>404.8361836183618</v>
       </c>
     </row>
   </sheetData>
